--- a/ecoli.train.xlsx
+++ b/ecoli.train.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAU\Desktop\Bioinformatics_DL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="13">
   <si>
     <t>cp</t>
   </si>
@@ -27,19 +32,10 @@
     <t>im</t>
   </si>
   <si>
-    <t>imS</t>
-  </si>
-  <si>
-    <t>imL</t>
-  </si>
-  <si>
     <t>imU</t>
   </si>
   <si>
     <t>om</t>
-  </si>
-  <si>
-    <t>omL</t>
   </si>
   <si>
     <t>pp</t>
@@ -80,8 +76,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,52 +461,52 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H203"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="8.796875" style="1"/>
+    <col min="8" max="8" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.49</v>
       </c>
@@ -536,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -562,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.56000000000000005</v>
       </c>
@@ -588,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.23</v>
       </c>
@@ -614,7 +610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.67</v>
       </c>
@@ -640,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.42</v>
       </c>
@@ -666,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.22</v>
       </c>
@@ -692,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.34</v>
       </c>
@@ -718,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.44</v>
       </c>
@@ -744,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.31</v>
       </c>
@@ -770,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.3</v>
       </c>
@@ -796,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.21</v>
       </c>
@@ -822,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.43</v>
       </c>
@@ -848,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.43</v>
       </c>
@@ -874,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.4</v>
       </c>
@@ -900,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.36</v>
       </c>
@@ -926,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.65</v>
       </c>
@@ -952,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.32</v>
       </c>
@@ -978,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.4</v>
       </c>
@@ -1004,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.17</v>
       </c>
@@ -1030,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.44</v>
       </c>
@@ -1056,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.43</v>
       </c>
@@ -1082,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.23</v>
       </c>
@@ -1108,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.22</v>
       </c>
@@ -1134,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.23</v>
       </c>
@@ -1160,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.4</v>
       </c>
@@ -1186,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.44</v>
       </c>
@@ -1212,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.42</v>
       </c>
@@ -1238,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.18</v>
       </c>
@@ -1264,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.24</v>
       </c>
@@ -1290,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.25</v>
       </c>
@@ -1316,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.52</v>
       </c>
@@ -1342,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.35</v>
       </c>
@@ -1368,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.26</v>
       </c>
@@ -1394,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.44</v>
       </c>
@@ -1420,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.37</v>
       </c>
@@ -1446,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.44</v>
       </c>
@@ -1472,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.24</v>
       </c>
@@ -1498,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.42</v>
       </c>
@@ -1524,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.48</v>
       </c>
@@ -1550,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.41</v>
       </c>
@@ -1576,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.41</v>
       </c>
@@ -1602,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.34</v>
       </c>
@@ -1628,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.36</v>
       </c>
@@ -1654,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.4</v>
       </c>
@@ -1680,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.5</v>
       </c>
@@ -1706,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.52</v>
       </c>
@@ -1732,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.5</v>
       </c>
@@ -1758,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.53</v>
       </c>
@@ -1784,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.34</v>
       </c>
@@ -1810,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.4</v>
       </c>
@@ -1836,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.41</v>
       </c>
@@ -1862,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.35</v>
       </c>
@@ -1888,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.65</v>
       </c>
@@ -1914,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.51</v>
       </c>
@@ -1940,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.38</v>
       </c>
@@ -1966,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.24</v>
       </c>
@@ -1992,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.38</v>
       </c>
@@ -2018,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.33</v>
       </c>
@@ -2044,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.26</v>
       </c>
@@ -2070,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.44</v>
       </c>
@@ -2096,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.49</v>
       </c>
@@ -2122,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.38</v>
       </c>
@@ -2148,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.38</v>
       </c>
@@ -2174,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.51</v>
       </c>
@@ -2200,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.25</v>
       </c>
@@ -2226,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.24</v>
       </c>
@@ -2252,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.17</v>
       </c>
@@ -2278,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.04</v>
       </c>
@@ -2304,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.23</v>
       </c>
@@ -2330,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.37</v>
       </c>
@@ -2356,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0</v>
       </c>
@@ -2382,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.39</v>
       </c>
@@ -2408,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.3</v>
       </c>
@@ -2434,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0.17</v>
       </c>
@@ -2460,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0.26</v>
       </c>
@@ -2486,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0.4</v>
       </c>
@@ -2512,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0.22</v>
       </c>
@@ -2538,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0.16</v>
       </c>
@@ -2564,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.34</v>
       </c>
@@ -2590,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.43</v>
       </c>
@@ -2616,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0.27</v>
       </c>
@@ -2642,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.52</v>
       </c>
@@ -2668,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.28999999999999998</v>
       </c>
@@ -2694,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0.12</v>
       </c>
@@ -2720,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.73</v>
       </c>
@@ -2746,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.48</v>
       </c>
@@ -2772,7 +2768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.54</v>
       </c>
@@ -2798,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.48</v>
       </c>
@@ -2824,7 +2820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0.5</v>
       </c>
@@ -2850,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0.33</v>
       </c>
@@ -2876,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0.64</v>
       </c>
@@ -2902,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0.54</v>
       </c>
@@ -2928,7 +2924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0.47</v>
       </c>
@@ -2954,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0.63</v>
       </c>
@@ -2980,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0.74</v>
       </c>
@@ -3006,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0.45</v>
       </c>
@@ -3032,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0.5</v>
       </c>
@@ -3058,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>0.66</v>
       </c>
@@ -3084,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0.6</v>
       </c>
@@ -3110,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0.83</v>
       </c>
@@ -3136,7 +3132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0.34</v>
       </c>
@@ -3162,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>0.74</v>
       </c>
@@ -3188,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>0.2</v>
       </c>
@@ -3214,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>0.89</v>
       </c>
@@ -3240,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>0.7</v>
       </c>
@@ -3266,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>0.33</v>
       </c>
@@ -3292,7 +3288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>0.41</v>
       </c>
@@ -3318,7 +3314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>0.34</v>
       </c>
@@ -3344,7 +3340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>0.51</v>
       </c>
@@ -3370,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>0.37</v>
       </c>
@@ -3396,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>0.36</v>
       </c>
@@ -3422,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>0.39</v>
       </c>
@@ -3448,7 +3444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>0.31</v>
       </c>
@@ -3474,7 +3470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>0.61</v>
       </c>
@@ -3500,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>0.48</v>
       </c>
@@ -3526,7 +3522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>0.31</v>
       </c>
@@ -3552,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>0.68</v>
       </c>
@@ -3578,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>0.69</v>
       </c>
@@ -3604,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>0.52</v>
       </c>
@@ -3630,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>0.46</v>
       </c>
@@ -3656,7 +3652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>0</v>
       </c>
@@ -3682,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>0.1</v>
       </c>
@@ -3708,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>0.3</v>
       </c>
@@ -3734,7 +3730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>0.61</v>
       </c>
@@ -3760,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>0.63</v>
       </c>
@@ -3786,7 +3782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>0.71</v>
       </c>
@@ -3812,12 +3808,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="B129">
-        <v>0.53</v>
+        <v>0.42</v>
       </c>
       <c r="C129">
         <v>0.48</v>
@@ -3826,24 +3822,24 @@
         <v>0.5</v>
       </c>
       <c r="E129">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="F129">
-        <v>0.52</v>
+        <v>0.77</v>
       </c>
       <c r="G129">
-        <v>0.35</v>
+        <v>0.79</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>0.63</v>
+        <v>0.79</v>
       </c>
       <c r="B130">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="C130">
         <v>0.48</v>
@@ -3852,414 +3848,414 @@
         <v>0.5</v>
       </c>
       <c r="E130">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="F130">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="G130">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
+        <v>0.69</v>
+      </c>
+      <c r="B131">
+        <v>0.43</v>
+      </c>
+      <c r="C131">
+        <v>0.48</v>
+      </c>
+      <c r="D131">
+        <v>0.5</v>
+      </c>
+      <c r="E131">
+        <v>0.59</v>
+      </c>
+      <c r="F131">
+        <v>0.74</v>
+      </c>
+      <c r="G131">
+        <v>0.77</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>0.78</v>
+      </c>
+      <c r="B132">
+        <v>0.33</v>
+      </c>
+      <c r="C132">
+        <v>0.48</v>
+      </c>
+      <c r="D132">
+        <v>0.5</v>
+      </c>
+      <c r="E132">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F132">
+        <v>0.77</v>
+      </c>
+      <c r="G132">
+        <v>0.79</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133">
         <v>0.75</v>
       </c>
-      <c r="B131">
+      <c r="B133">
+        <v>0.37</v>
+      </c>
+      <c r="C133">
+        <v>0.48</v>
+      </c>
+      <c r="D133">
+        <v>0.5</v>
+      </c>
+      <c r="E133">
+        <v>0.64</v>
+      </c>
+      <c r="F133">
+        <v>0.7</v>
+      </c>
+      <c r="G133">
+        <v>0.74</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>0.59</v>
+      </c>
+      <c r="B134">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C134">
+        <v>0.48</v>
+      </c>
+      <c r="D134">
+        <v>0.5</v>
+      </c>
+      <c r="E134">
+        <v>0.64</v>
+      </c>
+      <c r="F134">
+        <v>0.75</v>
+      </c>
+      <c r="G134">
+        <v>0.77</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>0.67</v>
+      </c>
+      <c r="B135">
+        <v>0.37</v>
+      </c>
+      <c r="C135">
+        <v>0.48</v>
+      </c>
+      <c r="D135">
+        <v>0.5</v>
+      </c>
+      <c r="E135">
+        <v>0.54</v>
+      </c>
+      <c r="F135">
+        <v>0.64</v>
+      </c>
+      <c r="G135">
+        <v>0.68</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>0.66</v>
+      </c>
+      <c r="B136">
+        <v>0.48</v>
+      </c>
+      <c r="C136">
+        <v>0.48</v>
+      </c>
+      <c r="D136">
+        <v>0.5</v>
+      </c>
+      <c r="E136">
+        <v>0.54</v>
+      </c>
+      <c r="F136">
+        <v>0.7</v>
+      </c>
+      <c r="G136">
+        <v>0.74</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>0.64</v>
+      </c>
+      <c r="B137">
+        <v>0.46</v>
+      </c>
+      <c r="C137">
+        <v>0.48</v>
+      </c>
+      <c r="D137">
+        <v>0.5</v>
+      </c>
+      <c r="E137">
+        <v>0.48</v>
+      </c>
+      <c r="F137">
+        <v>0.73</v>
+      </c>
+      <c r="G137">
+        <v>0.76</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>0.76</v>
+      </c>
+      <c r="B138">
+        <v>0.71</v>
+      </c>
+      <c r="C138">
+        <v>0.48</v>
+      </c>
+      <c r="D138">
+        <v>0.5</v>
+      </c>
+      <c r="E138">
+        <v>0.5</v>
+      </c>
+      <c r="F138">
+        <v>0.71</v>
+      </c>
+      <c r="G138">
+        <v>0.75</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>0.84</v>
+      </c>
+      <c r="B139">
+        <v>0.49</v>
+      </c>
+      <c r="C139">
+        <v>0.48</v>
+      </c>
+      <c r="D139">
+        <v>0.5</v>
+      </c>
+      <c r="E139">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
-      <c r="E131">
-        <v>0.4</v>
-      </c>
-      <c r="F131">
-        <v>0.47</v>
-      </c>
-      <c r="G131">
-        <v>0.3</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132">
-        <v>0.7</v>
-      </c>
-      <c r="B132">
-        <v>0.39</v>
-      </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-      <c r="D132">
-        <v>0.5</v>
-      </c>
-      <c r="E132">
+      <c r="F139">
+        <v>0.78</v>
+      </c>
+      <c r="G139">
+        <v>0.74</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>0.77</v>
+      </c>
+      <c r="B140">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C140">
+        <v>0.48</v>
+      </c>
+      <c r="D140">
+        <v>0.5</v>
+      </c>
+      <c r="E140">
         <v>0.51</v>
       </c>
-      <c r="F132">
-        <v>0.82</v>
-      </c>
-      <c r="G132">
-        <v>0.84</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133">
-        <v>0.72</v>
-      </c>
-      <c r="B133">
-        <v>0.42</v>
-      </c>
-      <c r="C133">
-        <v>0.48</v>
-      </c>
-      <c r="D133">
-        <v>0.5</v>
-      </c>
-      <c r="E133">
-        <v>0.65</v>
-      </c>
-      <c r="F133">
-        <v>0.77</v>
-      </c>
-      <c r="G133">
-        <v>0.79</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134">
-        <v>0.79</v>
-      </c>
-      <c r="B134">
-        <v>0.41</v>
-      </c>
-      <c r="C134">
-        <v>0.48</v>
-      </c>
-      <c r="D134">
-        <v>0.5</v>
-      </c>
-      <c r="E134">
-        <v>0.66</v>
-      </c>
-      <c r="F134">
-        <v>0.81</v>
-      </c>
-      <c r="G134">
-        <v>0.83</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135">
-        <v>0.69</v>
-      </c>
-      <c r="B135">
-        <v>0.43</v>
-      </c>
-      <c r="C135">
-        <v>0.48</v>
-      </c>
-      <c r="D135">
-        <v>0.5</v>
-      </c>
-      <c r="E135">
-        <v>0.59</v>
-      </c>
-      <c r="F135">
-        <v>0.74</v>
-      </c>
-      <c r="G135">
-        <v>0.77</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136">
+      <c r="F140">
         <v>0.78</v>
-      </c>
-      <c r="B136">
-        <v>0.33</v>
-      </c>
-      <c r="C136">
-        <v>0.48</v>
-      </c>
-      <c r="D136">
-        <v>0.5</v>
-      </c>
-      <c r="E136">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F136">
-        <v>0.77</v>
-      </c>
-      <c r="G136">
-        <v>0.79</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137">
-        <v>0.75</v>
-      </c>
-      <c r="B137">
-        <v>0.37</v>
-      </c>
-      <c r="C137">
-        <v>0.48</v>
-      </c>
-      <c r="D137">
-        <v>0.5</v>
-      </c>
-      <c r="E137">
-        <v>0.64</v>
-      </c>
-      <c r="F137">
-        <v>0.7</v>
-      </c>
-      <c r="G137">
-        <v>0.74</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138">
-        <v>0.59</v>
-      </c>
-      <c r="B138">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C138">
-        <v>0.48</v>
-      </c>
-      <c r="D138">
-        <v>0.5</v>
-      </c>
-      <c r="E138">
-        <v>0.64</v>
-      </c>
-      <c r="F138">
-        <v>0.75</v>
-      </c>
-      <c r="G138">
-        <v>0.77</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139">
-        <v>0.67</v>
-      </c>
-      <c r="B139">
-        <v>0.37</v>
-      </c>
-      <c r="C139">
-        <v>0.48</v>
-      </c>
-      <c r="D139">
-        <v>0.5</v>
-      </c>
-      <c r="E139">
-        <v>0.54</v>
-      </c>
-      <c r="F139">
-        <v>0.64</v>
-      </c>
-      <c r="G139">
-        <v>0.68</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140">
-        <v>0.66</v>
-      </c>
-      <c r="B140">
-        <v>0.48</v>
-      </c>
-      <c r="C140">
-        <v>0.48</v>
-      </c>
-      <c r="D140">
-        <v>0.5</v>
-      </c>
-      <c r="E140">
-        <v>0.54</v>
-      </c>
-      <c r="F140">
-        <v>0.7</v>
       </c>
       <c r="G140">
         <v>0.74</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>0.64</v>
+        <v>0.81</v>
       </c>
       <c r="B141">
+        <v>0.44</v>
+      </c>
+      <c r="C141">
+        <v>0.48</v>
+      </c>
+      <c r="D141">
+        <v>0.5</v>
+      </c>
+      <c r="E141">
+        <v>0.42</v>
+      </c>
+      <c r="F141">
+        <v>0.67</v>
+      </c>
+      <c r="G141">
+        <v>0.68</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>0.86</v>
+      </c>
+      <c r="B142">
+        <v>0.39</v>
+      </c>
+      <c r="C142">
+        <v>0.48</v>
+      </c>
+      <c r="D142">
+        <v>0.5</v>
+      </c>
+      <c r="E142">
+        <v>0.59</v>
+      </c>
+      <c r="F142">
+        <v>0.89</v>
+      </c>
+      <c r="G142">
+        <v>0.9</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>0.81</v>
+      </c>
+      <c r="B143">
+        <v>0.53</v>
+      </c>
+      <c r="C143">
+        <v>0.48</v>
+      </c>
+      <c r="D143">
+        <v>0.5</v>
+      </c>
+      <c r="E143">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F143">
+        <v>0.87</v>
+      </c>
+      <c r="G143">
+        <v>0.88</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>0.87</v>
+      </c>
+      <c r="B144">
+        <v>0.49</v>
+      </c>
+      <c r="C144">
+        <v>0.48</v>
+      </c>
+      <c r="D144">
+        <v>0.5</v>
+      </c>
+      <c r="E144">
+        <v>0.61</v>
+      </c>
+      <c r="F144">
+        <v>0.76</v>
+      </c>
+      <c r="G144">
+        <v>0.79</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>0.47</v>
+      </c>
+      <c r="B145">
         <v>0.46</v>
       </c>
-      <c r="C141">
-        <v>0.48</v>
-      </c>
-      <c r="D141">
-        <v>0.5</v>
-      </c>
-      <c r="E141">
-        <v>0.48</v>
-      </c>
-      <c r="F141">
-        <v>0.73</v>
-      </c>
-      <c r="G141">
+      <c r="C145">
+        <v>0.48</v>
+      </c>
+      <c r="D145">
+        <v>0.5</v>
+      </c>
+      <c r="E145">
+        <v>0.62</v>
+      </c>
+      <c r="F145">
+        <v>0.74</v>
+      </c>
+      <c r="G145">
+        <v>0.77</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146">
         <v>0.76</v>
       </c>
-      <c r="H141" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142">
-        <v>0.76</v>
-      </c>
-      <c r="B142">
-        <v>0.71</v>
-      </c>
-      <c r="C142">
-        <v>0.48</v>
-      </c>
-      <c r="D142">
-        <v>0.5</v>
-      </c>
-      <c r="E142">
-        <v>0.5</v>
-      </c>
-      <c r="F142">
-        <v>0.71</v>
-      </c>
-      <c r="G142">
-        <v>0.75</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143">
-        <v>0.84</v>
-      </c>
-      <c r="B143">
-        <v>0.49</v>
-      </c>
-      <c r="C143">
-        <v>0.48</v>
-      </c>
-      <c r="D143">
-        <v>0.5</v>
-      </c>
-      <c r="E143">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F143">
-        <v>0.78</v>
-      </c>
-      <c r="G143">
-        <v>0.74</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144">
-        <v>0.77</v>
-      </c>
-      <c r="B144">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C144">
-        <v>0.48</v>
-      </c>
-      <c r="D144">
-        <v>0.5</v>
-      </c>
-      <c r="E144">
-        <v>0.51</v>
-      </c>
-      <c r="F144">
-        <v>0.78</v>
-      </c>
-      <c r="G144">
-        <v>0.74</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145">
-        <v>0.81</v>
-      </c>
-      <c r="B145">
-        <v>0.44</v>
-      </c>
-      <c r="C145">
-        <v>0.48</v>
-      </c>
-      <c r="D145">
-        <v>0.5</v>
-      </c>
-      <c r="E145">
-        <v>0.42</v>
-      </c>
-      <c r="F145">
-        <v>0.67</v>
-      </c>
-      <c r="G145">
-        <v>0.68</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146">
-        <v>0.86</v>
-      </c>
       <c r="B146">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="C146">
         <v>0.48</v>
@@ -4268,21 +4264,21 @@
         <v>0.5</v>
       </c>
       <c r="E146">
+        <v>0.5</v>
+      </c>
+      <c r="F146">
         <v>0.59</v>
       </c>
-      <c r="F146">
-        <v>0.89</v>
-      </c>
       <c r="G146">
-        <v>0.9</v>
+        <v>0.62</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>0.81</v>
+        <v>0.7</v>
       </c>
       <c r="B147">
         <v>0.53</v>
@@ -4294,258 +4290,258 @@
         <v>0.5</v>
       </c>
       <c r="E147">
+        <v>0.7</v>
+      </c>
+      <c r="F147">
+        <v>0.86</v>
+      </c>
+      <c r="G147">
+        <v>0.87</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>0.64</v>
+      </c>
+      <c r="B148">
+        <v>0.45</v>
+      </c>
+      <c r="C148">
+        <v>0.48</v>
+      </c>
+      <c r="D148">
+        <v>0.5</v>
+      </c>
+      <c r="E148">
+        <v>0.67</v>
+      </c>
+      <c r="F148">
+        <v>0.61</v>
+      </c>
+      <c r="G148">
+        <v>0.66</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>0.81</v>
+      </c>
+      <c r="B149">
+        <v>0.52</v>
+      </c>
+      <c r="C149">
+        <v>0.48</v>
+      </c>
+      <c r="D149">
+        <v>0.5</v>
+      </c>
+      <c r="E149">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F147">
-        <v>0.87</v>
-      </c>
-      <c r="G147">
+      <c r="F149">
+        <v>0.78</v>
+      </c>
+      <c r="G149">
+        <v>0.8</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>0.73</v>
+      </c>
+      <c r="B150">
+        <v>0.26</v>
+      </c>
+      <c r="C150">
+        <v>0.48</v>
+      </c>
+      <c r="D150">
+        <v>0.5</v>
+      </c>
+      <c r="E150">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F150">
+        <v>0.75</v>
+      </c>
+      <c r="G150">
+        <v>0.78</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151">
         <v>0.88</v>
       </c>
-      <c r="H147" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148">
-        <v>0.87</v>
-      </c>
-      <c r="B148">
-        <v>0.49</v>
-      </c>
-      <c r="C148">
-        <v>0.48</v>
-      </c>
-      <c r="D148">
-        <v>0.5</v>
-      </c>
-      <c r="E148">
+      <c r="B151">
+        <v>0.42</v>
+      </c>
+      <c r="C151">
+        <v>0.48</v>
+      </c>
+      <c r="D151">
+        <v>0.5</v>
+      </c>
+      <c r="E151">
+        <v>0.52</v>
+      </c>
+      <c r="F151">
+        <v>0.73</v>
+      </c>
+      <c r="G151">
+        <v>0.75</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>0.86</v>
+      </c>
+      <c r="B152">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C152">
+        <v>0.48</v>
+      </c>
+      <c r="D152">
+        <v>0.5</v>
+      </c>
+      <c r="E152">
+        <v>0.63</v>
+      </c>
+      <c r="F152">
+        <v>0.81</v>
+      </c>
+      <c r="G152">
+        <v>0.83</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>0.78</v>
+      </c>
+      <c r="B153">
+        <v>0.68</v>
+      </c>
+      <c r="C153">
+        <v>0.48</v>
+      </c>
+      <c r="D153">
+        <v>0.5</v>
+      </c>
+      <c r="E153">
+        <v>0.83</v>
+      </c>
+      <c r="F153">
+        <v>0.4</v>
+      </c>
+      <c r="G153">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>0.63</v>
+      </c>
+      <c r="B154">
+        <v>0.69</v>
+      </c>
+      <c r="C154">
+        <v>0.48</v>
+      </c>
+      <c r="D154">
+        <v>0.5</v>
+      </c>
+      <c r="E154">
+        <v>0.65</v>
+      </c>
+      <c r="F154">
+        <v>0.41</v>
+      </c>
+      <c r="G154">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155">
         <v>0.61</v>
       </c>
-      <c r="F148">
+      <c r="B155">
+        <v>0.75</v>
+      </c>
+      <c r="C155">
+        <v>0.48</v>
+      </c>
+      <c r="D155">
+        <v>0.5</v>
+      </c>
+      <c r="E155">
+        <v>0.51</v>
+      </c>
+      <c r="F155">
+        <v>0.33</v>
+      </c>
+      <c r="G155">
+        <v>0.33</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>0.67</v>
+      </c>
+      <c r="B156">
+        <v>0.84</v>
+      </c>
+      <c r="C156">
+        <v>0.48</v>
+      </c>
+      <c r="D156">
+        <v>0.5</v>
+      </c>
+      <c r="E156">
+        <v>0.74</v>
+      </c>
+      <c r="F156">
+        <v>0.54</v>
+      </c>
+      <c r="G156">
+        <v>0.37</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>0.75</v>
+      </c>
+      <c r="B157">
         <v>0.76</v>
-      </c>
-      <c r="G148">
-        <v>0.79</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149">
-        <v>0.47</v>
-      </c>
-      <c r="B149">
-        <v>0.46</v>
-      </c>
-      <c r="C149">
-        <v>0.48</v>
-      </c>
-      <c r="D149">
-        <v>0.5</v>
-      </c>
-      <c r="E149">
-        <v>0.62</v>
-      </c>
-      <c r="F149">
-        <v>0.74</v>
-      </c>
-      <c r="G149">
-        <v>0.77</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150">
-        <v>0.76</v>
-      </c>
-      <c r="B150">
-        <v>0.41</v>
-      </c>
-      <c r="C150">
-        <v>0.48</v>
-      </c>
-      <c r="D150">
-        <v>0.5</v>
-      </c>
-      <c r="E150">
-        <v>0.5</v>
-      </c>
-      <c r="F150">
-        <v>0.59</v>
-      </c>
-      <c r="G150">
-        <v>0.62</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151">
-        <v>0.7</v>
-      </c>
-      <c r="B151">
-        <v>0.53</v>
-      </c>
-      <c r="C151">
-        <v>0.48</v>
-      </c>
-      <c r="D151">
-        <v>0.5</v>
-      </c>
-      <c r="E151">
-        <v>0.7</v>
-      </c>
-      <c r="F151">
-        <v>0.86</v>
-      </c>
-      <c r="G151">
-        <v>0.87</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152">
-        <v>0.64</v>
-      </c>
-      <c r="B152">
-        <v>0.45</v>
-      </c>
-      <c r="C152">
-        <v>0.48</v>
-      </c>
-      <c r="D152">
-        <v>0.5</v>
-      </c>
-      <c r="E152">
-        <v>0.67</v>
-      </c>
-      <c r="F152">
-        <v>0.61</v>
-      </c>
-      <c r="G152">
-        <v>0.66</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153">
-        <v>0.81</v>
-      </c>
-      <c r="B153">
-        <v>0.52</v>
-      </c>
-      <c r="C153">
-        <v>0.48</v>
-      </c>
-      <c r="D153">
-        <v>0.5</v>
-      </c>
-      <c r="E153">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F153">
-        <v>0.78</v>
-      </c>
-      <c r="G153">
-        <v>0.8</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154">
-        <v>0.73</v>
-      </c>
-      <c r="B154">
-        <v>0.26</v>
-      </c>
-      <c r="C154">
-        <v>0.48</v>
-      </c>
-      <c r="D154">
-        <v>0.5</v>
-      </c>
-      <c r="E154">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F154">
-        <v>0.75</v>
-      </c>
-      <c r="G154">
-        <v>0.78</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155">
-        <v>0.88</v>
-      </c>
-      <c r="B155">
-        <v>0.42</v>
-      </c>
-      <c r="C155">
-        <v>0.48</v>
-      </c>
-      <c r="D155">
-        <v>0.5</v>
-      </c>
-      <c r="E155">
-        <v>0.52</v>
-      </c>
-      <c r="F155">
-        <v>0.73</v>
-      </c>
-      <c r="G155">
-        <v>0.75</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156">
-        <v>0.86</v>
-      </c>
-      <c r="B156">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C156">
-        <v>0.48</v>
-      </c>
-      <c r="D156">
-        <v>0.5</v>
-      </c>
-      <c r="E156">
-        <v>0.63</v>
-      </c>
-      <c r="F156">
-        <v>0.81</v>
-      </c>
-      <c r="G156">
-        <v>0.83</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157">
-        <v>0.78</v>
-      </c>
-      <c r="B157">
-        <v>0.68</v>
       </c>
       <c r="C157">
         <v>0.48</v>
@@ -4557,512 +4553,512 @@
         <v>0.83</v>
       </c>
       <c r="F157">
-        <v>0.4</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G157">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158">
+        <v>0.77</v>
+      </c>
+      <c r="B158">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C158">
+        <v>0.48</v>
+      </c>
+      <c r="D158">
+        <v>0.5</v>
+      </c>
+      <c r="E158">
+        <v>0.88</v>
+      </c>
+      <c r="F158">
+        <v>0.53</v>
+      </c>
+      <c r="G158">
+        <v>0.2</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>0.52</v>
+      </c>
+      <c r="B159">
+        <v>0.81</v>
+      </c>
+      <c r="C159">
+        <v>0.48</v>
+      </c>
+      <c r="D159">
+        <v>0.5</v>
+      </c>
+      <c r="E159">
+        <v>0.72</v>
+      </c>
+      <c r="F159">
+        <v>0.38</v>
+      </c>
+      <c r="G159">
+        <v>0.38</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>0.6</v>
+      </c>
+      <c r="B160">
+        <v>0.76</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>0.5</v>
+      </c>
+      <c r="E160">
+        <v>0.77</v>
+      </c>
+      <c r="F160">
+        <v>0.59</v>
+      </c>
+      <c r="G160">
+        <v>0.52</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161">
         <v>0.63</v>
       </c>
-      <c r="B158">
-        <v>0.69</v>
-      </c>
-      <c r="C158">
-        <v>0.48</v>
-      </c>
-      <c r="D158">
-        <v>0.5</v>
-      </c>
-      <c r="E158">
+      <c r="B161">
+        <v>0.49</v>
+      </c>
+      <c r="C161">
+        <v>0.48</v>
+      </c>
+      <c r="D161">
+        <v>0.5</v>
+      </c>
+      <c r="E161">
+        <v>0.79</v>
+      </c>
+      <c r="F161">
+        <v>0.45</v>
+      </c>
+      <c r="G161">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>0.71</v>
+      </c>
+      <c r="B162">
+        <v>0.71</v>
+      </c>
+      <c r="C162">
+        <v>0.48</v>
+      </c>
+      <c r="D162">
+        <v>0.5</v>
+      </c>
+      <c r="E162">
+        <v>0.68</v>
+      </c>
+      <c r="F162">
+        <v>0.43</v>
+      </c>
+      <c r="G162">
+        <v>0.36</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>0.74</v>
+      </c>
+      <c r="B163">
+        <v>0.49</v>
+      </c>
+      <c r="C163">
+        <v>0.48</v>
+      </c>
+      <c r="D163">
+        <v>0.5</v>
+      </c>
+      <c r="E163">
+        <v>0.42</v>
+      </c>
+      <c r="F163">
+        <v>0.54</v>
+      </c>
+      <c r="G163">
+        <v>0.36</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>0.7</v>
+      </c>
+      <c r="B164">
+        <v>0.61</v>
+      </c>
+      <c r="C164">
+        <v>0.48</v>
+      </c>
+      <c r="D164">
+        <v>0.5</v>
+      </c>
+      <c r="E164">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F164">
+        <v>0.52</v>
+      </c>
+      <c r="G164">
+        <v>0.43</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>0.66</v>
+      </c>
+      <c r="B165">
+        <v>0.86</v>
+      </c>
+      <c r="C165">
+        <v>0.48</v>
+      </c>
+      <c r="D165">
+        <v>0.5</v>
+      </c>
+      <c r="E165">
+        <v>0.34</v>
+      </c>
+      <c r="F165">
+        <v>0.41</v>
+      </c>
+      <c r="G165">
+        <v>0.36</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>0.73</v>
+      </c>
+      <c r="B166">
+        <v>0.78</v>
+      </c>
+      <c r="C166">
+        <v>0.48</v>
+      </c>
+      <c r="D166">
+        <v>0.5</v>
+      </c>
+      <c r="E166">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F166">
+        <v>0.51</v>
+      </c>
+      <c r="G166">
+        <v>0.31</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167">
         <v>0.65</v>
-      </c>
-      <c r="F158">
-        <v>0.41</v>
-      </c>
-      <c r="G158">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H158" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159">
-        <v>0.61</v>
-      </c>
-      <c r="B159">
-        <v>0.75</v>
-      </c>
-      <c r="C159">
-        <v>0.48</v>
-      </c>
-      <c r="D159">
-        <v>0.5</v>
-      </c>
-      <c r="E159">
-        <v>0.51</v>
-      </c>
-      <c r="F159">
-        <v>0.33</v>
-      </c>
-      <c r="G159">
-        <v>0.33</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160">
-        <v>0.67</v>
-      </c>
-      <c r="B160">
-        <v>0.84</v>
-      </c>
-      <c r="C160">
-        <v>0.48</v>
-      </c>
-      <c r="D160">
-        <v>0.5</v>
-      </c>
-      <c r="E160">
-        <v>0.74</v>
-      </c>
-      <c r="F160">
-        <v>0.54</v>
-      </c>
-      <c r="G160">
-        <v>0.37</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161">
-        <v>0.75</v>
-      </c>
-      <c r="B161">
-        <v>0.76</v>
-      </c>
-      <c r="C161">
-        <v>0.48</v>
-      </c>
-      <c r="D161">
-        <v>0.5</v>
-      </c>
-      <c r="E161">
-        <v>0.83</v>
-      </c>
-      <c r="F161">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G161">
-        <v>0.3</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162">
-        <v>0.77</v>
-      </c>
-      <c r="B162">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C162">
-        <v>0.48</v>
-      </c>
-      <c r="D162">
-        <v>0.5</v>
-      </c>
-      <c r="E162">
-        <v>0.88</v>
-      </c>
-      <c r="F162">
-        <v>0.53</v>
-      </c>
-      <c r="G162">
-        <v>0.2</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163">
-        <v>0.52</v>
-      </c>
-      <c r="B163">
-        <v>0.81</v>
-      </c>
-      <c r="C163">
-        <v>0.48</v>
-      </c>
-      <c r="D163">
-        <v>0.5</v>
-      </c>
-      <c r="E163">
-        <v>0.72</v>
-      </c>
-      <c r="F163">
-        <v>0.38</v>
-      </c>
-      <c r="G163">
-        <v>0.38</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164">
-        <v>0.6</v>
-      </c>
-      <c r="B164">
-        <v>0.76</v>
-      </c>
-      <c r="C164">
-        <v>1</v>
-      </c>
-      <c r="D164">
-        <v>0.5</v>
-      </c>
-      <c r="E164">
-        <v>0.77</v>
-      </c>
-      <c r="F164">
-        <v>0.59</v>
-      </c>
-      <c r="G164">
-        <v>0.52</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165">
-        <v>0.63</v>
-      </c>
-      <c r="B165">
-        <v>0.49</v>
-      </c>
-      <c r="C165">
-        <v>0.48</v>
-      </c>
-      <c r="D165">
-        <v>0.5</v>
-      </c>
-      <c r="E165">
-        <v>0.79</v>
-      </c>
-      <c r="F165">
-        <v>0.45</v>
-      </c>
-      <c r="G165">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166">
-        <v>0.71</v>
-      </c>
-      <c r="B166">
-        <v>0.71</v>
-      </c>
-      <c r="C166">
-        <v>0.48</v>
-      </c>
-      <c r="D166">
-        <v>0.5</v>
-      </c>
-      <c r="E166">
-        <v>0.68</v>
-      </c>
-      <c r="F166">
-        <v>0.43</v>
-      </c>
-      <c r="G166">
-        <v>0.36</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167">
-        <v>0.77</v>
       </c>
       <c r="B167">
         <v>0.56999999999999995</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="D167">
         <v>0.5</v>
       </c>
       <c r="E167">
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
       <c r="F167">
+        <v>0.47</v>
+      </c>
+      <c r="G167">
+        <v>0.51</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>0.72</v>
+      </c>
+      <c r="B168">
+        <v>0.86</v>
+      </c>
+      <c r="C168">
+        <v>0.48</v>
+      </c>
+      <c r="D168">
+        <v>0.5</v>
+      </c>
+      <c r="E168">
+        <v>0.17</v>
+      </c>
+      <c r="F168">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G168">
+        <v>0.21</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>0.67</v>
+      </c>
+      <c r="B169">
+        <v>0.7</v>
+      </c>
+      <c r="C169">
+        <v>0.48</v>
+      </c>
+      <c r="D169">
+        <v>0.5</v>
+      </c>
+      <c r="E169">
+        <v>0.46</v>
+      </c>
+      <c r="F169">
+        <v>0.45</v>
+      </c>
+      <c r="G169">
+        <v>0.33</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>0.71</v>
+      </c>
+      <c r="B170">
+        <v>0.71</v>
+      </c>
+      <c r="C170">
+        <v>0.48</v>
+      </c>
+      <c r="D170">
+        <v>0.5</v>
+      </c>
+      <c r="E170">
+        <v>0.4</v>
+      </c>
+      <c r="F170">
         <v>0.54</v>
       </c>
-      <c r="G167">
-        <v>0.01</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168">
+      <c r="G170">
+        <v>0.39</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171">
         <v>0.66</v>
       </c>
-      <c r="B168">
+      <c r="B171">
+        <v>0.74</v>
+      </c>
+      <c r="C171">
+        <v>0.48</v>
+      </c>
+      <c r="D171">
+        <v>0.5</v>
+      </c>
+      <c r="E171">
+        <v>0.31</v>
+      </c>
+      <c r="F171">
+        <v>0.38</v>
+      </c>
+      <c r="G171">
+        <v>0.43</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>0.67</v>
+      </c>
+      <c r="B172">
+        <v>0.81</v>
+      </c>
+      <c r="C172">
+        <v>0.48</v>
+      </c>
+      <c r="D172">
+        <v>0.5</v>
+      </c>
+      <c r="E172">
+        <v>0.25</v>
+      </c>
+      <c r="F172">
+        <v>0.42</v>
+      </c>
+      <c r="G172">
+        <v>0.25</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>0.64</v>
+      </c>
+      <c r="B173">
+        <v>0.72</v>
+      </c>
+      <c r="C173">
+        <v>0.48</v>
+      </c>
+      <c r="D173">
+        <v>0.5</v>
+      </c>
+      <c r="E173">
         <v>0.49</v>
       </c>
-      <c r="C168">
-        <v>1</v>
-      </c>
-      <c r="D168">
-        <v>0.5</v>
-      </c>
-      <c r="E168">
-        <v>0.54</v>
-      </c>
-      <c r="F168">
+      <c r="F173">
+        <v>0.42</v>
+      </c>
+      <c r="G173">
+        <v>0.19</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>0.68</v>
+      </c>
+      <c r="B174">
+        <v>0.82</v>
+      </c>
+      <c r="C174">
+        <v>0.48</v>
+      </c>
+      <c r="D174">
+        <v>0.5</v>
+      </c>
+      <c r="E174">
+        <v>0.38</v>
+      </c>
+      <c r="F174">
+        <v>0.65</v>
+      </c>
+      <c r="G174">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G168">
-        <v>0.36</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169">
-        <v>0.71</v>
-      </c>
-      <c r="B169">
-        <v>0.46</v>
-      </c>
-      <c r="C169">
-        <v>1</v>
-      </c>
-      <c r="D169">
-        <v>0.5</v>
-      </c>
-      <c r="E169">
-        <v>0.52</v>
-      </c>
-      <c r="F169">
-        <v>0.59</v>
-      </c>
-      <c r="G169">
-        <v>0.3</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170">
-        <v>0.67</v>
-      </c>
-      <c r="B170">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C170">
-        <v>1</v>
-      </c>
-      <c r="D170">
-        <v>0.5</v>
-      </c>
-      <c r="E170">
-        <v>0.66</v>
-      </c>
-      <c r="F170">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G170">
-        <v>0.16</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171">
-        <v>0.68</v>
-      </c>
-      <c r="B171">
+      <c r="H174" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>0.63</v>
+      </c>
+      <c r="B175">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C175">
+        <v>0.48</v>
+      </c>
+      <c r="D175">
+        <v>0.5</v>
+      </c>
+      <c r="E175">
         <v>0.49</v>
       </c>
-      <c r="C171">
-        <v>1</v>
-      </c>
-      <c r="D171">
-        <v>0.5</v>
-      </c>
-      <c r="E171">
-        <v>0.62</v>
-      </c>
-      <c r="F171">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G171">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H171" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172">
+      <c r="F175">
+        <v>0.7</v>
+      </c>
+      <c r="G175">
+        <v>0.2</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176">
         <v>0.74</v>
       </c>
-      <c r="B172">
+      <c r="B176">
+        <v>0.82</v>
+      </c>
+      <c r="C176">
+        <v>0.48</v>
+      </c>
+      <c r="D176">
+        <v>0.5</v>
+      </c>
+      <c r="E176">
         <v>0.49</v>
       </c>
-      <c r="C172">
-        <v>0.48</v>
-      </c>
-      <c r="D172">
-        <v>0.5</v>
-      </c>
-      <c r="E172">
-        <v>0.42</v>
-      </c>
-      <c r="F172">
-        <v>0.54</v>
-      </c>
-      <c r="G172">
-        <v>0.36</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173">
-        <v>0.7</v>
-      </c>
-      <c r="B173">
-        <v>0.61</v>
-      </c>
-      <c r="C173">
-        <v>0.48</v>
-      </c>
-      <c r="D173">
-        <v>0.5</v>
-      </c>
-      <c r="E173">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F173">
-        <v>0.52</v>
-      </c>
-      <c r="G173">
-        <v>0.43</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174">
-        <v>0.66</v>
-      </c>
-      <c r="B174">
-        <v>0.86</v>
-      </c>
-      <c r="C174">
-        <v>0.48</v>
-      </c>
-      <c r="D174">
-        <v>0.5</v>
-      </c>
-      <c r="E174">
-        <v>0.34</v>
-      </c>
-      <c r="F174">
+      <c r="F176">
+        <v>0.49</v>
+      </c>
+      <c r="G176">
         <v>0.41</v>
       </c>
-      <c r="G174">
-        <v>0.36</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175">
-        <v>0.73</v>
-      </c>
-      <c r="B175">
-        <v>0.78</v>
-      </c>
-      <c r="C175">
-        <v>0.48</v>
-      </c>
-      <c r="D175">
-        <v>0.5</v>
-      </c>
-      <c r="E175">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F175">
-        <v>0.51</v>
-      </c>
-      <c r="G175">
-        <v>0.31</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="A176">
-        <v>0.65</v>
-      </c>
-      <c r="B176">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C176">
-        <v>0.48</v>
-      </c>
-      <c r="D176">
-        <v>0.5</v>
-      </c>
-      <c r="E176">
-        <v>0.47</v>
-      </c>
-      <c r="F176">
-        <v>0.47</v>
-      </c>
-      <c r="G176">
-        <v>0.51</v>
-      </c>
       <c r="H176" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>0.72</v>
+        <v>0.63</v>
       </c>
       <c r="B177">
         <v>0.86</v>
@@ -5074,281 +5070,281 @@
         <v>0.5</v>
       </c>
       <c r="E177">
-        <v>0.17</v>
+        <v>0.39</v>
       </c>
       <c r="F177">
-        <v>0.55000000000000004</v>
+        <v>0.47</v>
       </c>
       <c r="G177">
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178">
+        <v>0.63</v>
+      </c>
+      <c r="B178">
+        <v>0.83</v>
+      </c>
+      <c r="C178">
+        <v>0.48</v>
+      </c>
+      <c r="D178">
+        <v>0.5</v>
+      </c>
+      <c r="E178">
+        <v>0.4</v>
+      </c>
+      <c r="F178">
+        <v>0.39</v>
+      </c>
+      <c r="G178">
+        <v>0.19</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>0.68</v>
+      </c>
+      <c r="B179">
+        <v>0.78</v>
+      </c>
+      <c r="C179">
+        <v>0.48</v>
+      </c>
+      <c r="D179">
+        <v>0.5</v>
+      </c>
+      <c r="E179">
+        <v>0.43</v>
+      </c>
+      <c r="F179">
+        <v>0.44</v>
+      </c>
+      <c r="G179">
+        <v>0.42</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>0.75</v>
+      </c>
+      <c r="B180">
+        <v>0.84</v>
+      </c>
+      <c r="C180">
+        <v>0.48</v>
+      </c>
+      <c r="D180">
+        <v>0.5</v>
+      </c>
+      <c r="E180">
+        <v>0.35</v>
+      </c>
+      <c r="F180">
+        <v>0.52</v>
+      </c>
+      <c r="G180">
+        <v>0.33</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>0.63</v>
+      </c>
+      <c r="B181">
+        <v>0.65</v>
+      </c>
+      <c r="C181">
+        <v>0.48</v>
+      </c>
+      <c r="D181">
+        <v>0.5</v>
+      </c>
+      <c r="E181">
+        <v>0.39</v>
+      </c>
+      <c r="F181">
+        <v>0.44</v>
+      </c>
+      <c r="G181">
+        <v>0.35</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>0.69</v>
+      </c>
+      <c r="B182">
         <v>0.67</v>
       </c>
-      <c r="B178">
+      <c r="C182">
+        <v>0.48</v>
+      </c>
+      <c r="D182">
+        <v>0.5</v>
+      </c>
+      <c r="E182">
+        <v>0.3</v>
+      </c>
+      <c r="F182">
+        <v>0.39</v>
+      </c>
+      <c r="G182">
+        <v>0.24</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183">
         <v>0.7</v>
       </c>
-      <c r="C178">
-        <v>0.48</v>
-      </c>
-      <c r="D178">
-        <v>0.5</v>
-      </c>
-      <c r="E178">
+      <c r="B183">
+        <v>0.71</v>
+      </c>
+      <c r="C183">
+        <v>0.48</v>
+      </c>
+      <c r="D183">
+        <v>0.5</v>
+      </c>
+      <c r="E183">
+        <v>0.42</v>
+      </c>
+      <c r="F183">
+        <v>0.84</v>
+      </c>
+      <c r="G183">
+        <v>0.85</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>0.69</v>
+      </c>
+      <c r="B184">
+        <v>0.8</v>
+      </c>
+      <c r="C184">
+        <v>0.48</v>
+      </c>
+      <c r="D184">
+        <v>0.5</v>
+      </c>
+      <c r="E184">
         <v>0.46</v>
       </c>
-      <c r="F178">
-        <v>0.45</v>
-      </c>
-      <c r="G178">
-        <v>0.33</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179">
+      <c r="F184">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G184">
+        <v>0.26</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>0.64</v>
+      </c>
+      <c r="B185">
+        <v>0.66</v>
+      </c>
+      <c r="C185">
+        <v>0.48</v>
+      </c>
+      <c r="D185">
+        <v>0.5</v>
+      </c>
+      <c r="E185">
+        <v>0.41</v>
+      </c>
+      <c r="F185">
+        <v>0.39</v>
+      </c>
+      <c r="G185">
+        <v>0.2</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>0.66</v>
+      </c>
+      <c r="B186">
         <v>0.71</v>
       </c>
-      <c r="B179">
-        <v>0.71</v>
-      </c>
-      <c r="C179">
-        <v>0.48</v>
-      </c>
-      <c r="D179">
-        <v>0.5</v>
-      </c>
-      <c r="E179">
+      <c r="C186">
+        <v>0.48</v>
+      </c>
+      <c r="D186">
+        <v>0.5</v>
+      </c>
+      <c r="E186">
+        <v>0.41</v>
+      </c>
+      <c r="F186">
+        <v>0.5</v>
+      </c>
+      <c r="G186">
+        <v>0.35</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>0.68</v>
+      </c>
+      <c r="B187">
+        <v>0.67</v>
+      </c>
+      <c r="C187">
+        <v>0.48</v>
+      </c>
+      <c r="D187">
+        <v>0.5</v>
+      </c>
+      <c r="E187">
+        <v>0.49</v>
+      </c>
+      <c r="F187">
         <v>0.4</v>
       </c>
-      <c r="F179">
-        <v>0.54</v>
-      </c>
-      <c r="G179">
-        <v>0.39</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180">
-        <v>0.66</v>
-      </c>
-      <c r="B180">
-        <v>0.74</v>
-      </c>
-      <c r="C180">
-        <v>0.48</v>
-      </c>
-      <c r="D180">
-        <v>0.5</v>
-      </c>
-      <c r="E180">
-        <v>0.31</v>
-      </c>
-      <c r="F180">
-        <v>0.38</v>
-      </c>
-      <c r="G180">
-        <v>0.43</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181">
-        <v>0.67</v>
-      </c>
-      <c r="B181">
-        <v>0.81</v>
-      </c>
-      <c r="C181">
-        <v>0.48</v>
-      </c>
-      <c r="D181">
-        <v>0.5</v>
-      </c>
-      <c r="E181">
-        <v>0.25</v>
-      </c>
-      <c r="F181">
-        <v>0.42</v>
-      </c>
-      <c r="G181">
-        <v>0.25</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182">
+      <c r="G187">
+        <v>0.34</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188">
         <v>0.64</v>
-      </c>
-      <c r="B182">
-        <v>0.72</v>
-      </c>
-      <c r="C182">
-        <v>0.48</v>
-      </c>
-      <c r="D182">
-        <v>0.5</v>
-      </c>
-      <c r="E182">
-        <v>0.49</v>
-      </c>
-      <c r="F182">
-        <v>0.42</v>
-      </c>
-      <c r="G182">
-        <v>0.19</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183">
-        <v>0.68</v>
-      </c>
-      <c r="B183">
-        <v>0.82</v>
-      </c>
-      <c r="C183">
-        <v>0.48</v>
-      </c>
-      <c r="D183">
-        <v>0.5</v>
-      </c>
-      <c r="E183">
-        <v>0.38</v>
-      </c>
-      <c r="F183">
-        <v>0.65</v>
-      </c>
-      <c r="G183">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184">
-        <v>0.63</v>
-      </c>
-      <c r="B184">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C184">
-        <v>0.48</v>
-      </c>
-      <c r="D184">
-        <v>0.5</v>
-      </c>
-      <c r="E184">
-        <v>0.49</v>
-      </c>
-      <c r="F184">
-        <v>0.7</v>
-      </c>
-      <c r="G184">
-        <v>0.2</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="A185">
-        <v>0.74</v>
-      </c>
-      <c r="B185">
-        <v>0.82</v>
-      </c>
-      <c r="C185">
-        <v>0.48</v>
-      </c>
-      <c r="D185">
-        <v>0.5</v>
-      </c>
-      <c r="E185">
-        <v>0.49</v>
-      </c>
-      <c r="F185">
-        <v>0.49</v>
-      </c>
-      <c r="G185">
-        <v>0.41</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186">
-        <v>0.63</v>
-      </c>
-      <c r="B186">
-        <v>0.86</v>
-      </c>
-      <c r="C186">
-        <v>0.48</v>
-      </c>
-      <c r="D186">
-        <v>0.5</v>
-      </c>
-      <c r="E186">
-        <v>0.39</v>
-      </c>
-      <c r="F186">
-        <v>0.47</v>
-      </c>
-      <c r="G186">
-        <v>0.34</v>
-      </c>
-      <c r="H186" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187">
-        <v>0.63</v>
-      </c>
-      <c r="B187">
-        <v>0.83</v>
-      </c>
-      <c r="C187">
-        <v>0.48</v>
-      </c>
-      <c r="D187">
-        <v>0.5</v>
-      </c>
-      <c r="E187">
-        <v>0.4</v>
-      </c>
-      <c r="F187">
-        <v>0.39</v>
-      </c>
-      <c r="G187">
-        <v>0.19</v>
-      </c>
-      <c r="H187" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188">
-        <v>0.68</v>
       </c>
       <c r="B188">
         <v>0.78</v>
@@ -5360,406 +5356,172 @@
         <v>0.5</v>
       </c>
       <c r="E188">
+        <v>0.5</v>
+      </c>
+      <c r="F188">
+        <v>0.36</v>
+      </c>
+      <c r="G188">
+        <v>0.38</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>0.62</v>
+      </c>
+      <c r="B189">
+        <v>0.78</v>
+      </c>
+      <c r="C189">
+        <v>0.48</v>
+      </c>
+      <c r="D189">
+        <v>0.5</v>
+      </c>
+      <c r="E189">
+        <v>0.47</v>
+      </c>
+      <c r="F189">
+        <v>0.49</v>
+      </c>
+      <c r="G189">
+        <v>0.54</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>0.76</v>
+      </c>
+      <c r="B190">
+        <v>0.73</v>
+      </c>
+      <c r="C190">
+        <v>0.48</v>
+      </c>
+      <c r="D190">
+        <v>0.5</v>
+      </c>
+      <c r="E190">
+        <v>0.44</v>
+      </c>
+      <c r="F190">
+        <v>0.39</v>
+      </c>
+      <c r="G190">
+        <v>0.39</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>0.62</v>
+      </c>
+      <c r="B191">
+        <v>0.83</v>
+      </c>
+      <c r="C191">
+        <v>0.48</v>
+      </c>
+      <c r="D191">
+        <v>0.5</v>
+      </c>
+      <c r="E191">
+        <v>0.46</v>
+      </c>
+      <c r="F191">
+        <v>0.36</v>
+      </c>
+      <c r="G191">
+        <v>0.4</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B192">
+        <v>0.54</v>
+      </c>
+      <c r="C192">
+        <v>0.48</v>
+      </c>
+      <c r="D192">
+        <v>0.5</v>
+      </c>
+      <c r="E192">
         <v>0.43</v>
       </c>
-      <c r="F188">
-        <v>0.44</v>
-      </c>
-      <c r="G188">
-        <v>0.42</v>
-      </c>
-      <c r="H188" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189">
-        <v>0.75</v>
-      </c>
-      <c r="B189">
-        <v>0.84</v>
-      </c>
-      <c r="C189">
-        <v>0.48</v>
-      </c>
-      <c r="D189">
-        <v>0.5</v>
-      </c>
-      <c r="E189">
+      <c r="F192">
+        <v>0.37</v>
+      </c>
+      <c r="G192">
+        <v>0.3</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>0.74</v>
+      </c>
+      <c r="B193">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C193">
+        <v>0.48</v>
+      </c>
+      <c r="D193">
+        <v>0.5</v>
+      </c>
+      <c r="E193">
+        <v>0.47</v>
+      </c>
+      <c r="F193">
+        <v>0.68</v>
+      </c>
+      <c r="G193">
+        <v>0.3</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>0.71</v>
+      </c>
+      <c r="B194">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C194">
+        <v>0.48</v>
+      </c>
+      <c r="D194">
+        <v>0.5</v>
+      </c>
+      <c r="E194">
+        <v>0.48</v>
+      </c>
+      <c r="F194">
         <v>0.35</v>
       </c>
-      <c r="F189">
-        <v>0.52</v>
-      </c>
-      <c r="G189">
-        <v>0.33</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="A190">
-        <v>0.63</v>
-      </c>
-      <c r="B190">
-        <v>0.65</v>
-      </c>
-      <c r="C190">
-        <v>0.48</v>
-      </c>
-      <c r="D190">
-        <v>0.5</v>
-      </c>
-      <c r="E190">
-        <v>0.39</v>
-      </c>
-      <c r="F190">
-        <v>0.44</v>
-      </c>
-      <c r="G190">
-        <v>0.35</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
-      <c r="A191">
-        <v>0.69</v>
-      </c>
-      <c r="B191">
-        <v>0.67</v>
-      </c>
-      <c r="C191">
-        <v>0.48</v>
-      </c>
-      <c r="D191">
-        <v>0.5</v>
-      </c>
-      <c r="E191">
-        <v>0.3</v>
-      </c>
-      <c r="F191">
-        <v>0.39</v>
-      </c>
-      <c r="G191">
-        <v>0.24</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
-      <c r="A192">
-        <v>0.7</v>
-      </c>
-      <c r="B192">
-        <v>0.71</v>
-      </c>
-      <c r="C192">
-        <v>0.48</v>
-      </c>
-      <c r="D192">
-        <v>0.5</v>
-      </c>
-      <c r="E192">
-        <v>0.42</v>
-      </c>
-      <c r="F192">
-        <v>0.84</v>
-      </c>
-      <c r="G192">
-        <v>0.85</v>
-      </c>
-      <c r="H192" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="A193">
-        <v>0.69</v>
-      </c>
-      <c r="B193">
-        <v>0.8</v>
-      </c>
-      <c r="C193">
-        <v>0.48</v>
-      </c>
-      <c r="D193">
-        <v>0.5</v>
-      </c>
-      <c r="E193">
-        <v>0.46</v>
-      </c>
-      <c r="F193">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G193">
-        <v>0.26</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="A194">
-        <v>0.64</v>
-      </c>
-      <c r="B194">
-        <v>0.66</v>
-      </c>
-      <c r="C194">
-        <v>0.48</v>
-      </c>
-      <c r="D194">
-        <v>0.5</v>
-      </c>
-      <c r="E194">
-        <v>0.41</v>
-      </c>
-      <c r="F194">
-        <v>0.39</v>
-      </c>
       <c r="G194">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
-      <c r="A195">
-        <v>0.66</v>
-      </c>
-      <c r="B195">
-        <v>0.71</v>
-      </c>
-      <c r="C195">
-        <v>0.48</v>
-      </c>
-      <c r="D195">
-        <v>0.5</v>
-      </c>
-      <c r="E195">
-        <v>0.41</v>
-      </c>
-      <c r="F195">
-        <v>0.5</v>
-      </c>
-      <c r="G195">
-        <v>0.35</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196">
-        <v>0.68</v>
-      </c>
-      <c r="B196">
-        <v>0.67</v>
-      </c>
-      <c r="C196">
-        <v>0.48</v>
-      </c>
-      <c r="D196">
-        <v>0.5</v>
-      </c>
-      <c r="E196">
-        <v>0.49</v>
-      </c>
-      <c r="F196">
-        <v>0.4</v>
-      </c>
-      <c r="G196">
-        <v>0.34</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="A197">
-        <v>0.64</v>
-      </c>
-      <c r="B197">
-        <v>0.78</v>
-      </c>
-      <c r="C197">
-        <v>0.48</v>
-      </c>
-      <c r="D197">
-        <v>0.5</v>
-      </c>
-      <c r="E197">
-        <v>0.5</v>
-      </c>
-      <c r="F197">
-        <v>0.36</v>
-      </c>
-      <c r="G197">
-        <v>0.38</v>
-      </c>
-      <c r="H197" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
-      <c r="A198">
-        <v>0.62</v>
-      </c>
-      <c r="B198">
-        <v>0.78</v>
-      </c>
-      <c r="C198">
-        <v>0.48</v>
-      </c>
-      <c r="D198">
-        <v>0.5</v>
-      </c>
-      <c r="E198">
-        <v>0.47</v>
-      </c>
-      <c r="F198">
-        <v>0.49</v>
-      </c>
-      <c r="G198">
-        <v>0.54</v>
-      </c>
-      <c r="H198" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="A199">
-        <v>0.76</v>
-      </c>
-      <c r="B199">
-        <v>0.73</v>
-      </c>
-      <c r="C199">
-        <v>0.48</v>
-      </c>
-      <c r="D199">
-        <v>0.5</v>
-      </c>
-      <c r="E199">
-        <v>0.44</v>
-      </c>
-      <c r="F199">
-        <v>0.39</v>
-      </c>
-      <c r="G199">
-        <v>0.39</v>
-      </c>
-      <c r="H199" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="A200">
-        <v>0.62</v>
-      </c>
-      <c r="B200">
-        <v>0.83</v>
-      </c>
-      <c r="C200">
-        <v>0.48</v>
-      </c>
-      <c r="D200">
-        <v>0.5</v>
-      </c>
-      <c r="E200">
-        <v>0.46</v>
-      </c>
-      <c r="F200">
-        <v>0.36</v>
-      </c>
-      <c r="G200">
-        <v>0.4</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
-      <c r="A201">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="B201">
-        <v>0.54</v>
-      </c>
-      <c r="C201">
-        <v>0.48</v>
-      </c>
-      <c r="D201">
-        <v>0.5</v>
-      </c>
-      <c r="E201">
-        <v>0.43</v>
-      </c>
-      <c r="F201">
-        <v>0.37</v>
-      </c>
-      <c r="G201">
-        <v>0.3</v>
-      </c>
-      <c r="H201" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="A202">
-        <v>0.74</v>
-      </c>
-      <c r="B202">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C202">
-        <v>0.48</v>
-      </c>
-      <c r="D202">
-        <v>0.5</v>
-      </c>
-      <c r="E202">
-        <v>0.47</v>
-      </c>
-      <c r="F202">
-        <v>0.68</v>
-      </c>
-      <c r="G202">
-        <v>0.3</v>
-      </c>
-      <c r="H202" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="A203">
-        <v>0.71</v>
-      </c>
-      <c r="B203">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C203">
-        <v>0.48</v>
-      </c>
-      <c r="D203">
-        <v>0.5</v>
-      </c>
-      <c r="E203">
-        <v>0.48</v>
-      </c>
-      <c r="F203">
-        <v>0.35</v>
-      </c>
-      <c r="G203">
-        <v>0.32</v>
-      </c>
-      <c r="H203" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
